--- a/medicine/Enfance/Observation_en_milieu_ouvert/Observation_en_milieu_ouvert.xlsx
+++ b/medicine/Enfance/Observation_en_milieu_ouvert/Observation_en_milieu_ouvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Observation en Milieu Ouvert (« OMO ») est, en droit français, une mesure d'investigation utilisée par le juge des enfants pour connaître la situation d'un enfant. Elle n'a aucune visée éducative mais seulement d'investigation.
 Elle peut revêtir le cadre d'une enquête sociale ou d'une enquête psychologique, ou un assemblage de ces deux types d'enquêtes.
